--- a/Chelsea Stuff/Chelsea - LifeSavers - Economies.xlsx
+++ b/Chelsea Stuff/Chelsea - LifeSavers - Economies.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lekonia\Desktop\Repo\Documentation\Documents\Chelsea Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s200471\Desktop\Documents\Documents\Chelsea Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55286154-45E0-4CEE-B127-8C62335747E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C921C6-9D34-4E4C-8459-C1C8B1F45149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8540" xr2:uid="{3082B079-C112-44E0-9548-26A967F67840}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3082B079-C112-44E0-9548-26A967F67840}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -437,7 +446,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +519,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -603,28 +624,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -647,6 +653,25 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,51 +989,50 @@
   <dimension ref="B2:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7265625" customWidth="1"/>
-    <col min="20" max="20" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="L2" s="6" t="s">
+    <row r="2" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1051,196 +1075,196 @@
       <c r="I5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="8">
         <v>-1</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="16">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="2">
         <v>100</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="18">
         <v>-1</v>
       </c>
       <c r="F6" s="2">
         <v>100</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="24">
         <v>-1</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="28">
         <f>SUM(C6/F6*100,E11,H11)</f>
         <v>90</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="7">
         <v>-1</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="15">
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="6">
         <v>-2</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="14">
         <v>-2</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="6">
         <v>-2</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="14">
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <v>-1</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="K8" s="14" t="s">
+      <c r="I8" s="28"/>
+      <c r="K8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="9">
         <v>1</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="9">
         <v>1</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="15">
         <v>-2</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="K9" s="15" t="s">
+      <c r="I9" s="28"/>
+      <c r="K9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <v>0</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="15">
         <v>-2</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="K10" s="16" t="s">
+      <c r="I10" s="28"/>
+      <c r="K10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
@@ -1257,37 +1281,37 @@
         <v>-7</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
       <c r="K13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>3</v>
@@ -1314,29 +1338,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="2">
         <f>SUM(C6 - -E11)</f>
         <v>97</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="18">
         <v>-1</v>
       </c>
       <c r="F15" s="2">
         <f>SUM(F6 - -H11)</f>
         <v>93</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="34">
         <v>-1</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="28">
         <f>AVERAGE(C15,F15)  +E20+H20</f>
         <v>85</v>
       </c>
@@ -1344,91 +1368,91 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="6">
         <v>-2</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="14">
         <v>-2</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="28"/>
       <c r="K16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="7">
         <v>-1</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="36">
         <v>0</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="28"/>
       <c r="K17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="9">
         <v>1</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="15">
         <v>-2</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="28"/>
       <c r="K18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="11">
         <v>0</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="15">
         <v>-2</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="28"/>
       <c r="K19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
@@ -1449,24 +1473,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
         <v>3</v>
@@ -1490,106 +1514,106 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="2">
         <f>SUM(C15 - -E20)</f>
         <v>94</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="18">
         <v>-1</v>
       </c>
       <c r="F24" s="2">
         <f>SUM(F15 - -H20)</f>
         <v>86</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="34">
         <v>-1</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="28">
         <f>AVERAGE(C24,F24)  +E29+H29</f>
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="6">
         <v>-2</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="14">
         <v>-2</v>
       </c>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="7">
         <v>-1</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="36">
         <v>0</v>
       </c>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="9">
         <v>1</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="15">
         <v>-2</v>
       </c>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="11">
         <v>0</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="15">
         <v>-2</v>
       </c>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
